--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200318.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200318.xlsx
@@ -10764,8 +10764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -12355,6 +12355,12 @@
       </c>
       <c r="G29" s="12" t="s">
         <v>3294</v>
+      </c>
+      <c r="I29" s="12">
+        <v>9</v>
+      </c>
+      <c r="K29" s="12">
+        <v>1</v>
       </c>
       <c r="M29" s="12">
         <v>28</v>
